--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11202654-006 JCP 008 visa\git2\MetamodelTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F1C845-DCD4-4FE7-A663-69D13E8DEEEE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373FCF9-A806-4DEE-969F-A28A79B55D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18DA8874-025A-44DF-B9D0-782ACD2DB3C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52396E84-C21A-4C78-BB2F-BF0BE2208D0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="scneario" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$45</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,33 +34,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Scenario_Economic</t>
-  </si>
-  <si>
-    <t>Scenario_Climate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="75">
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ClimateScenarioScale</t>
+  </si>
+  <si>
+    <t>EconomicScenarioScale</t>
+  </si>
+  <si>
+    <t>ScenarioItem</t>
+  </si>
+  <si>
+    <t>Unite</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>Socio-economic developments</t>
+  </si>
+  <si>
+    <t>Population inhabitants</t>
+  </si>
+  <si>
+    <t>Million</t>
   </si>
   <si>
     <t>Productive</t>
   </si>
   <si>
-    <t>Resilience</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t>Population is derived from WorldPop with GUF Mask year 2015</t>
+  </si>
+  <si>
+    <t>Resilient</t>
+  </si>
+  <si>
+    <t>Description2</t>
   </si>
   <si>
     <t>Moderate</t>
   </si>
   <si>
+    <t>Description3</t>
+  </si>
+  <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Description4</t>
+  </si>
+  <si>
+    <t>Urbanization urban inhabitants</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Description5</t>
+  </si>
+  <si>
+    <t>Description6</t>
+  </si>
+  <si>
+    <t>Description7</t>
+  </si>
+  <si>
+    <t>Description8</t>
+  </si>
+  <si>
+    <t>Description9</t>
+  </si>
+  <si>
+    <t>Description10</t>
+  </si>
+  <si>
+    <t>Description11</t>
+  </si>
+  <si>
+    <t>Description12</t>
+  </si>
+  <si>
+    <t>GDP per capita (Constant prices of 2010)</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Description13</t>
+  </si>
+  <si>
+    <t>Description14</t>
+  </si>
+  <si>
+    <t>Description15</t>
+  </si>
+  <si>
+    <t>Description16</t>
+  </si>
+  <si>
+    <t>Agricultural share GDP (GDP contribution agricultural sector Ref: 2014</t>
+  </si>
+  <si>
+    <t>Description17</t>
+  </si>
+  <si>
+    <t>Description18</t>
+  </si>
+  <si>
+    <t>Description19</t>
+  </si>
+  <si>
+    <t>Description20</t>
+  </si>
+  <si>
+    <t>Agriculture employment share (of people employed in agriculture sector)</t>
+  </si>
+  <si>
+    <t>Description21</t>
+  </si>
+  <si>
+    <t>Description22</t>
+  </si>
+  <si>
+    <t>Description23</t>
+  </si>
+  <si>
+    <t>Description24</t>
+  </si>
+  <si>
+    <t>Poverty (Poverty headcount ratio at $1.25 a day (PPP) (Ref 2010))</t>
+  </si>
+  <si>
+    <t>Description25</t>
+  </si>
+  <si>
+    <t>Description26</t>
+  </si>
+  <si>
+    <t>Description27</t>
+  </si>
+  <si>
+    <t>Description28</t>
+  </si>
+  <si>
+    <t>Total freight transport</t>
+  </si>
+  <si>
+    <t>billion ton-km</t>
+  </si>
+  <si>
+    <t>Description29</t>
+  </si>
+  <si>
+    <t>Description30</t>
+  </si>
+  <si>
+    <t>Description31</t>
+  </si>
+  <si>
+    <t>Description32</t>
+  </si>
+  <si>
+    <t>Inland waterway freight transport</t>
+  </si>
+  <si>
+    <t>Description33</t>
+  </si>
+  <si>
+    <t>Description34</t>
+  </si>
+  <si>
+    <t>Description35</t>
+  </si>
+  <si>
+    <t>Description36</t>
+  </si>
+  <si>
+    <t>billion ton-km modal share (%)</t>
+  </si>
+  <si>
+    <t>Description37</t>
+  </si>
+  <si>
+    <t>Description38</t>
+  </si>
+  <si>
+    <t>Description39</t>
+  </si>
+  <si>
+    <t>Description40</t>
+  </si>
+  <si>
+    <t>Land use developments-Agriculture land</t>
+  </si>
+  <si>
+    <t>% surface area</t>
+  </si>
+  <si>
+    <t>Description41</t>
+  </si>
+  <si>
+    <t>Description42</t>
+  </si>
+  <si>
+    <t>Description43</t>
+  </si>
+  <si>
+    <t>Description44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP Growth Average annual real GDP growth rates </t>
+  </si>
+  <si>
+    <t>Inland waterway freight transport modal share</t>
   </si>
 </sst>
 </file>
@@ -93,8 +294,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,76 +616,1867 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E84F4FB-65F7-4448-83FE-52345C8CFCE2}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9492E4A-7B51-4E40-99FB-F9B6982C4433}">
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2050</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>160</v>
+      </c>
+      <c r="H2" s="2">
+        <v>171</v>
+      </c>
+      <c r="I2" s="2">
+        <v>185</v>
+      </c>
+      <c r="J2" s="2">
+        <v>194</v>
+      </c>
+      <c r="K2" s="2">
+        <v>200</v>
+      </c>
+      <c r="L2" s="2">
+        <v>165</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2">
+        <v>168</v>
+      </c>
+      <c r="I3" s="2">
+        <v>175</v>
+      </c>
+      <c r="J3" s="2">
+        <v>174</v>
+      </c>
+      <c r="K3" s="2">
+        <v>170</v>
+      </c>
+      <c r="L3" s="2">
+        <v>125</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>160</v>
+      </c>
+      <c r="H4" s="2">
+        <v>173</v>
+      </c>
+      <c r="I4" s="2">
+        <v>188</v>
+      </c>
+      <c r="J4" s="2">
+        <v>200</v>
+      </c>
+      <c r="K4" s="2">
+        <v>210</v>
+      </c>
+      <c r="L4" s="2">
+        <v>190</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>160</v>
+      </c>
+      <c r="H5" s="2">
+        <v>176</v>
+      </c>
+      <c r="I5" s="2">
+        <v>197</v>
+      </c>
+      <c r="J5" s="2">
+        <v>217</v>
+      </c>
+      <c r="K5" s="2">
+        <v>230</v>
+      </c>
+      <c r="L5" s="2">
+        <v>260</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2">
+        <v>85</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>48</v>
+      </c>
+      <c r="L9" s="2">
+        <v>60</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K12" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="L12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>866</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1158</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2290</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4542</v>
+      </c>
+      <c r="K14" s="2">
+        <v>8586</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>866</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1125</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3469</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5723</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30000</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>866</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1072</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1685</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2519</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3585</v>
+      </c>
+      <c r="L16" s="2">
+        <v>12000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>866</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1323</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1611</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1893</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4500</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8</v>
+      </c>
+      <c r="L18" s="2">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <v>8</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2">
+        <v>13</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>15</v>
+      </c>
+      <c r="L21" s="2">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" s="2">
+        <v>40</v>
+      </c>
+      <c r="I22" s="2">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" s="2">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2">
+        <v>35</v>
+      </c>
+      <c r="J23" s="2">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>25</v>
+      </c>
+      <c r="L23" s="2">
+        <v>15</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2">
+        <v>47</v>
+      </c>
+      <c r="I24" s="2">
+        <v>46</v>
+      </c>
+      <c r="J24" s="2">
+        <v>45</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" s="2">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2">
+        <v>50</v>
+      </c>
+      <c r="J25" s="2">
+        <v>50</v>
+      </c>
+      <c r="K25" s="2">
+        <v>47</v>
+      </c>
+      <c r="L25" s="2">
+        <v>40</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2">
+        <v>32</v>
+      </c>
+      <c r="I26" s="2">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2">
+        <v>18</v>
+      </c>
+      <c r="K26" s="2">
+        <v>14</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2">
+        <v>35</v>
+      </c>
+      <c r="I27" s="2">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" s="2">
+        <v>35</v>
+      </c>
+      <c r="J28" s="2">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2">
+        <v>30</v>
+      </c>
+      <c r="L28" s="2">
+        <v>15</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" s="2">
+        <v>39</v>
+      </c>
+      <c r="J29" s="2">
+        <v>37</v>
+      </c>
+      <c r="K29" s="2">
+        <v>35</v>
+      </c>
+      <c r="L29" s="2">
+        <v>25</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2">
+        <v>51</v>
+      </c>
+      <c r="I30" s="2">
+        <v>110</v>
+      </c>
+      <c r="J30" s="2">
+        <v>229</v>
+      </c>
+      <c r="K30" s="2">
+        <v>445</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2311</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2">
+        <v>36</v>
+      </c>
+      <c r="H31" s="2">
+        <v>49</v>
+      </c>
+      <c r="I31" s="2">
+        <v>91</v>
+      </c>
+      <c r="J31" s="2">
+        <v>160</v>
+      </c>
+      <c r="K31" s="2">
+        <v>267</v>
+      </c>
+      <c r="L31" s="2">
+        <v>973</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2">
+        <v>82</v>
+      </c>
+      <c r="J32" s="2">
+        <v>131</v>
+      </c>
+      <c r="K32" s="2">
+        <v>195</v>
+      </c>
+      <c r="L32" s="2">
+        <v>590</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2">
+        <v>36</v>
+      </c>
+      <c r="H33" s="2">
+        <v>46</v>
+      </c>
+      <c r="I33" s="2">
+        <v>68</v>
+      </c>
+      <c r="J33" s="2">
+        <v>91</v>
+      </c>
+      <c r="K33" s="2">
+        <v>113</v>
+      </c>
+      <c r="L33" s="2">
+        <v>304</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H34" s="2">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I34" s="2">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2">
+        <v>53</v>
+      </c>
+      <c r="K34" s="2">
+        <v>108</v>
+      </c>
+      <c r="L34" s="2">
+        <v>695</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7</v>
+      </c>
+      <c r="I35" s="2">
+        <v>16</v>
+      </c>
+      <c r="J35" s="2">
+        <v>30</v>
+      </c>
+      <c r="K35" s="2">
+        <v>53</v>
+      </c>
+      <c r="L35" s="2">
+        <v>243</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I36" s="2">
+        <v>11</v>
+      </c>
+      <c r="J36" s="2">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2">
+        <v>31</v>
+      </c>
+      <c r="L36" s="2">
+        <v>112</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H37" s="2">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="J37" s="2">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2">
+        <v>12</v>
+      </c>
+      <c r="L37" s="2">
+        <v>36</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2">
+        <v>23</v>
+      </c>
+      <c r="K38" s="2">
+        <v>24</v>
+      </c>
+      <c r="L38" s="2">
+        <v>28</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2">
+        <v>14</v>
+      </c>
+      <c r="I39" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" s="2">
+        <v>19</v>
+      </c>
+      <c r="K39" s="2">
+        <v>20</v>
+      </c>
+      <c r="L39" s="2">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2">
+        <v>13</v>
+      </c>
+      <c r="I40" s="2">
+        <v>14</v>
+      </c>
+      <c r="J40" s="2">
+        <v>15</v>
+      </c>
+      <c r="K40" s="2">
+        <v>16</v>
+      </c>
+      <c r="L40" s="2">
+        <v>19</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2">
+        <v>11</v>
+      </c>
+      <c r="I41" s="2">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2">
+        <v>10</v>
+      </c>
+      <c r="K41" s="2">
+        <v>11</v>
+      </c>
+      <c r="L41" s="2">
+        <v>12</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2">
+        <v>60</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2">
+        <v>60</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2">
+        <v>60</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2">
+        <v>60</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M45" xr:uid="{9966E531-AD96-486C-AF00-52391833B6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11202654-006 JCP 008 visa\git2\MetamodelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373FCF9-A806-4DEE-969F-A28A79B55D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F35E0-BE1F-43A4-8A62-3D4E92697618}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52396E84-C21A-4C78-BB2F-BF0BE2208D0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="76">
   <si>
     <t>High</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Inland waterway freight transport modal share</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
   </si>
 </sst>
 </file>
@@ -619,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9492E4A-7B51-4E40-99FB-F9B6982C4433}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="18" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="20" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="23" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="24" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="25" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="26" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="27" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="28" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="29" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -1819,9 +1822,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -1860,9 +1863,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -1901,9 +1904,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -1942,9 +1945,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
@@ -1983,9 +1986,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -2024,9 +2027,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -2065,9 +2068,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -2106,9 +2109,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -2149,7 +2152,7 @@
     </row>
     <row r="38" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="39" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="40" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="41" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="42" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -2354,7 +2357,7 @@
     </row>
     <row r="43" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="44" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="45" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
